--- a/DATA_goal/Junction_Flooding_380.xlsx
+++ b/DATA_goal/Junction_Flooding_380.xlsx
@@ -445,9 +445,9 @@
     <col width="21" customWidth="1" min="1" max="1"/>
     <col width="6" customWidth="1" min="2" max="2"/>
     <col width="6" customWidth="1" min="3" max="3"/>
-    <col width="5" customWidth="1" min="4" max="4"/>
-    <col width="6" customWidth="1" min="5" max="5"/>
-    <col width="6" customWidth="1" min="6" max="6"/>
+    <col width="6" customWidth="1" min="4" max="4"/>
+    <col width="7" customWidth="1" min="5" max="5"/>
+    <col width="7" customWidth="1" min="6" max="6"/>
     <col width="6" customWidth="1" min="7" max="7"/>
     <col width="6" customWidth="1" min="8" max="8"/>
     <col width="6" customWidth="1" min="9" max="9"/>
@@ -461,8 +461,8 @@
     <col width="6" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="6" customWidth="1" min="20" max="20"/>
-    <col width="6" customWidth="1" min="21" max="21"/>
+    <col width="7" customWidth="1" min="20" max="20"/>
+    <col width="7" customWidth="1" min="21" max="21"/>
     <col width="6" customWidth="1" min="22" max="22"/>
     <col width="6" customWidth="1" min="23" max="23"/>
     <col width="6" customWidth="1" min="24" max="24"/>
@@ -473,7 +473,7 @@
     <col width="6" customWidth="1" min="29" max="29"/>
     <col width="6" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="6" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="32" max="32"/>
     <col width="6" customWidth="1" min="33" max="33"/>
     <col width="6" customWidth="1" min="34" max="34"/>
   </cols>
@@ -655,103 +655,103 @@
         <v>44781.54861111111</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>0.64</v>
+        <v>6.43</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0.52</v>
+        <v>5.21</v>
       </c>
       <c r="D2" s="4" t="n">
         <v>0</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>1.46</v>
+        <v>14.56</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>1.15</v>
+        <v>11.53</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>0.45</v>
+        <v>4.49</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>1.5</v>
+        <v>15</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>0.82</v>
+        <v>8.210000000000001</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.42</v>
+        <v>4.17</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>5.58</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>0.62</v>
+        <v>6.24</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>0.67</v>
+        <v>6.75</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.16</v>
+        <v>1.61</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>5.62</v>
       </c>
       <c r="P2" s="4" t="n">
+        <v>7.14</v>
+      </c>
+      <c r="Q2" s="4" t="n">
+        <v>4.88</v>
+      </c>
+      <c r="R2" s="4" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="S2" s="4" t="n">
         <v>0.71</v>
       </c>
-      <c r="Q2" s="4" t="n">
-        <v>0.49</v>
-      </c>
-      <c r="R2" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="S2" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
       <c r="T2" s="4" t="n">
-        <v>7.84</v>
+        <v>78.41</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>1.54</v>
+        <v>15.37</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>0.52</v>
+        <v>5.18</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>9.359999999999999</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>0.63</v>
+        <v>6.29</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.1</v>
+        <v>0.96</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>0.8100000000000001</v>
+        <v>8.109999999999999</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>0.4</v>
+        <v>4.01</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0.5</v>
+        <v>5.03</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>6.9</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>0.76</v>
+        <v>7.61</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.13</v>
+        <v>1.26</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>1.23</v>
+        <v>12.3</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.38</v>
+        <v>3.8</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>0.57</v>
+        <v>5.74</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>44781.55555555555</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>0.53</v>
+        <v>5.31</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>0.42</v>
+        <v>4.16</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>1.21</v>
+        <v>12.08</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>0.96</v>
+        <v>9.550000000000001</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>0.38</v>
+        <v>3.81</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>1.7</v>
+        <v>17</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>0.67</v>
+        <v>6.69</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0.35</v>
+        <v>3.5</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>0.45</v>
+        <v>4.49</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>0.5</v>
+        <v>5.01</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>0.54</v>
+        <v>5.35</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.14</v>
+        <v>1.37</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>0.45</v>
+        <v>4.49</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>0.6</v>
+        <v>5.99</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>0.39</v>
+        <v>3.93</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.05</v>
+        <v>0.46</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>6.13</v>
+        <v>61.34</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>1.26</v>
+        <v>12.65</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>0.41</v>
+        <v>4.14</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>0.8</v>
+        <v>8.02</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>0.49</v>
+        <v>4.87</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.08</v>
+        <v>0.78</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>0.88</v>
+        <v>8.81</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>0.35</v>
+        <v>3.46</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>0.39</v>
+        <v>3.88</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>0.48</v>
+        <v>4.82</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>0.57</v>
+        <v>5.73</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.06</v>
+        <v>0.65</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>1.54</v>
+        <v>15.35</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.27</v>
+        <v>2.75</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>0.48</v>
+        <v>4.85</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>44781.5625</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>0.11</v>
+        <v>1.12</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0.09</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="D4" s="4" t="n">
         <v>0</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>0.28</v>
+        <v>2.82</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>0.2</v>
+        <v>2.02</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>0.06</v>
+        <v>0.6</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>0.76</v>
+        <v>7.58</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>0.15</v>
+        <v>1.54</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>0.12</v>
+        <v>1.16</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>0.1</v>
+        <v>1.02</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>0.12</v>
+        <v>1.24</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>0.13</v>
+        <v>1.35</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.03</v>
+        <v>0.34</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>0.11</v>
+        <v>1.11</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>0.14</v>
+        <v>1.4</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>0.11</v>
+        <v>1.09</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.02</v>
+        <v>0.24</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>0.99</v>
+        <v>9.91</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>0.34</v>
+        <v>3.43</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>0.1</v>
+        <v>1.02</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>0.2</v>
+        <v>2.04</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>0.15</v>
+        <v>1.46</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.03</v>
+        <v>0.31</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>0.38</v>
+        <v>3.78</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>0.08</v>
+        <v>0.8</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>0.13</v>
+        <v>1.27</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>0.16</v>
+        <v>1.59</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>0.16</v>
+        <v>1.59</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.04</v>
+        <v>0.43</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>0.71</v>
+        <v>7.11</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.08</v>
+        <v>0.83</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>0.11</v>
+        <v>1.08</v>
       </c>
     </row>
     <row r="5">
@@ -967,16 +967,16 @@
         <v>44781.56944444445</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>0.02</v>
+        <v>0.22</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>0.02</v>
+        <v>0.25</v>
       </c>
       <c r="D5" s="4" t="n">
         <v>0</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>0.08</v>
+        <v>0.8</v>
       </c>
       <c r="F5" s="4" t="n">
         <v>0</v>
@@ -985,19 +985,19 @@
         <v>0</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>0.34</v>
+        <v>3.38</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>0.04</v>
+        <v>0.43</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>0.06</v>
+        <v>0.57</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>0.03</v>
+        <v>0.27</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>0.03</v>
+        <v>0.33</v>
       </c>
       <c r="M5" s="4" t="n">
         <v>0</v>
@@ -1006,64 +1006,64 @@
         <v>0</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>0.04</v>
+        <v>0.35</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>0.04</v>
+        <v>0.37</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>0.04</v>
+        <v>0.44</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.01</v>
+        <v>0.12</v>
       </c>
       <c r="T5" s="4" t="n">
         <v>0</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>0.12</v>
+        <v>1.22</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>0.03</v>
+        <v>0.33</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>0.06</v>
+        <v>0.61</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>0.06</v>
+        <v>0.63</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.02</v>
+        <v>0.2</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>0.18</v>
+        <v>1.8</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>0.02</v>
+        <v>0.23</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0.06</v>
+        <v>0.63</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>0.08</v>
+        <v>0.79</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>0.06</v>
+        <v>0.63</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.03</v>
+        <v>0.31</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>0.34</v>
+        <v>3.43</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.04</v>
+        <v>0.37</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>0.03</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="6">

--- a/DATA_goal/Junction_Flooding_380.xlsx
+++ b/DATA_goal/Junction_Flooding_380.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="6" customWidth="1" min="2" max="2"/>
-    <col width="6" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="6" customWidth="1" min="7" max="7"/>
-    <col width="6" customWidth="1" min="8" max="8"/>
-    <col width="6" customWidth="1" min="9" max="9"/>
-    <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="6" customWidth="1" min="11" max="11"/>
-    <col width="6" customWidth="1" min="12" max="12"/>
-    <col width="6" customWidth="1" min="13" max="13"/>
-    <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="6" customWidth="1" min="15" max="15"/>
-    <col width="6" customWidth="1" min="16" max="16"/>
-    <col width="6" customWidth="1" min="17" max="17"/>
-    <col width="6" customWidth="1" min="18" max="18"/>
-    <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="7" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="6" customWidth="1" min="22" max="22"/>
-    <col width="6" customWidth="1" min="23" max="23"/>
-    <col width="6" customWidth="1" min="24" max="24"/>
-    <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="6" customWidth="1" min="26" max="26"/>
-    <col width="6" customWidth="1" min="27" max="27"/>
-    <col width="6" customWidth="1" min="28" max="28"/>
-    <col width="6" customWidth="1" min="29" max="29"/>
-    <col width="6" customWidth="1" min="30" max="30"/>
-    <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
-    <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="6" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
+    <col width="8" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="14" max="14"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="8" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="18" max="18"/>
+    <col width="7" customWidth="1" min="19" max="19"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="25" max="25"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
+    <col width="8" customWidth="1" min="27" max="27"/>
+    <col width="8" customWidth="1" min="28" max="28"/>
+    <col width="8" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="31" max="31"/>
+    <col width="8" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="33" max="33"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -652,522 +652,418 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>44781.54861111111</v>
+        <v>45061.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>6.43</v>
+        <v>24.502</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>5.21</v>
+        <v>17.071</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0</v>
+        <v>4.266</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>14.56</v>
+        <v>51.765</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>11.53</v>
+        <v>42.826</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>4.49</v>
+        <v>19.282</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>15</v>
+        <v>64.646</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>8.210000000000001</v>
+        <v>29.668</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>4.17</v>
+        <v>12.708</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>5.58</v>
+        <v>19.604</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>6.24</v>
+        <v>20.148</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>6.75</v>
+        <v>21.386</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>1.61</v>
+        <v>6.157</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>5.62</v>
+        <v>19.174</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>7.14</v>
+        <v>27.062</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>4.88</v>
+        <v>15.864</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.27</v>
+        <v>3.991</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.71</v>
+        <v>2.607</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>78.41</v>
+        <v>284.514</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>15.37</v>
+        <v>53.424</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>5.18</v>
+        <v>17.698</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>9.359999999999999</v>
+        <v>35.645</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>6.29</v>
+        <v>18.491</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.96</v>
+        <v>2.496</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>8.109999999999999</v>
+        <v>31.956</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>4.01</v>
+        <v>15.633</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>5.03</v>
+        <v>13.958</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>6.9</v>
+        <v>16.32</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>7.61</v>
+        <v>21.117</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>1.26</v>
+        <v>3.641</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>12.3</v>
+        <v>57.291</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>3.8</v>
+        <v>9.936999999999999</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>5.74</v>
+        <v>22.127</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>44781.55555555555</v>
+        <v>45061.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>5.31</v>
+        <v>24.021</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>4.16</v>
+        <v>17.38</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.01</v>
+        <v>2.069</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>12.08</v>
+        <v>51.658</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>9.550000000000001</v>
+        <v>42.771</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>3.81</v>
+        <v>18.904</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>17</v>
+        <v>73.45699999999999</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>6.69</v>
+        <v>29.086</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>3.5</v>
+        <v>12.763</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>4.49</v>
+        <v>19.309</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>5.01</v>
+        <v>20.534</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>5.35</v>
+        <v>21.75</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>1.37</v>
+        <v>6.039</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>4.49</v>
+        <v>18.798</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>5.99</v>
+        <v>26.681</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>3.93</v>
+        <v>15.816</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.1</v>
+        <v>1.725</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.46</v>
+        <v>1.286</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>61.34</v>
+        <v>278.824</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>12.65</v>
+        <v>52.594</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>4.14</v>
+        <v>17.351</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>8.02</v>
+        <v>35.238</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>4.87</v>
+        <v>18.664</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.78</v>
+        <v>2.447</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>8.81</v>
+        <v>35.351</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>3.46</v>
+        <v>15.326</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>3.88</v>
+        <v>13.69</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>4.82</v>
+        <v>16.055</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>5.73</v>
+        <v>21.593</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.65</v>
+        <v>1.294</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>15.35</v>
+        <v>66.44499999999999</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>2.75</v>
+        <v>9.769</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>4.85</v>
+        <v>21.694</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>44781.5625</v>
+        <v>45061.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>1.12</v>
+        <v>15.854</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>11.467</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0</v>
+        <v>1.304</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>2.82</v>
+        <v>34.099</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>2.02</v>
+        <v>28.253</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>0.6</v>
+        <v>12.477</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>7.58</v>
+        <v>50.979</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>1.54</v>
+        <v>19.197</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>1.16</v>
+        <v>8.426</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>1.02</v>
+        <v>12.723</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>1.24</v>
+        <v>13.577</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>1.35</v>
+        <v>14.379</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.34</v>
+        <v>3.986</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>1.11</v>
+        <v>12.407</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>1.4</v>
+        <v>17.601</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>1.09</v>
+        <v>10.513</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.04</v>
+        <v>1.095</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.24</v>
+        <v>0.792</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>9.91</v>
+        <v>181.534</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>3.43</v>
+        <v>34.765</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>1.02</v>
+        <v>11.452</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>2.04</v>
+        <v>23.249</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>1.46</v>
+        <v>12.385</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.31</v>
+        <v>1.61</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>3.78</v>
+        <v>24.063</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>0.8</v>
+        <v>10.115</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>1.27</v>
+        <v>9.058</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>1.59</v>
+        <v>10.622</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>1.59</v>
+        <v>14.311</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.43</v>
+        <v>0.784</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>7.11</v>
+        <v>46.099</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.83</v>
+        <v>6.425</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>1.08</v>
+        <v>14.318</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>44781.56944444445</v>
+        <v>45061.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>0.22</v>
+        <v>15.37</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>0.25</v>
+        <v>11.22</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>0.8</v>
+        <v>33.15</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>0</v>
+        <v>27.46</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>0</v>
+        <v>12.1</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>3.38</v>
+        <v>47.89</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>0.43</v>
+        <v>18.62</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>0.57</v>
+        <v>8.210000000000001</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>0.27</v>
+        <v>12.36</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>0.33</v>
+        <v>13.23</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>0</v>
+        <v>14.01</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0</v>
+        <v>3.86</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>0.35</v>
+        <v>12.03</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>0.37</v>
+        <v>17.09</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>0.44</v>
+        <v>10.17</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.02</v>
+        <v>0.83</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.12</v>
+        <v>0.68</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>0</v>
+        <v>175.8</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>1.22</v>
+        <v>33.66</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>0.33</v>
+        <v>11.1</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>0.61</v>
+        <v>22.56</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>0.63</v>
+        <v>12.02</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.2</v>
+        <v>1.56</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>1.8</v>
+        <v>22.86</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>0.23</v>
+        <v>9.81</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0.63</v>
+        <v>8.75</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>0.79</v>
+        <v>10.27</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>0.63</v>
+        <v>13.96</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.31</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>3.43</v>
+        <v>43.26</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.37</v>
+        <v>6.24</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>0.27</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44781.57637731481</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>0.27</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>0.26</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>0.46</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>0.48</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>0.51</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>0.53</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>0.6899999999999999</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>0.59</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>2.29</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>0.3</v>
+        <v>13.88</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_380.xlsx
+++ b/DATA_goal/Junction_Flooding_380.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH5"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="8" customWidth="1" min="2" max="2"/>
-    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="2" max="2"/>
+    <col width="7" customWidth="1" min="3" max="3"/>
     <col width="7" customWidth="1" min="4" max="4"/>
     <col width="8" customWidth="1" min="5" max="5"/>
     <col width="8" customWidth="1" min="6" max="6"/>
-    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="7" customWidth="1" min="7" max="7"/>
     <col width="8" customWidth="1" min="8" max="8"/>
-    <col width="8" customWidth="1" min="9" max="9"/>
-    <col width="8" customWidth="1" min="10" max="10"/>
-    <col width="8" customWidth="1" min="11" max="11"/>
-    <col width="8" customWidth="1" min="12" max="12"/>
-    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="9" max="9"/>
+    <col width="7" customWidth="1" min="10" max="10"/>
+    <col width="7" customWidth="1" min="11" max="11"/>
+    <col width="7" customWidth="1" min="12" max="12"/>
+    <col width="7" customWidth="1" min="13" max="13"/>
     <col width="7" customWidth="1" min="14" max="14"/>
-    <col width="8" customWidth="1" min="15" max="15"/>
-    <col width="8" customWidth="1" min="16" max="16"/>
-    <col width="8" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="15" max="15"/>
+    <col width="7" customWidth="1" min="16" max="16"/>
+    <col width="7" customWidth="1" min="17" max="17"/>
     <col width="7" customWidth="1" min="18" max="18"/>
     <col width="7" customWidth="1" min="19" max="19"/>
-    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="20" max="20"/>
     <col width="8" customWidth="1" min="21" max="21"/>
-    <col width="8" customWidth="1" min="22" max="22"/>
-    <col width="8" customWidth="1" min="23" max="23"/>
-    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="22" max="22"/>
+    <col width="7" customWidth="1" min="23" max="23"/>
+    <col width="7" customWidth="1" min="24" max="24"/>
     <col width="7" customWidth="1" min="25" max="25"/>
-    <col width="8" customWidth="1" min="26" max="26"/>
-    <col width="8" customWidth="1" min="27" max="27"/>
-    <col width="8" customWidth="1" min="28" max="28"/>
-    <col width="8" customWidth="1" min="29" max="29"/>
-    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="26" max="26"/>
+    <col width="7" customWidth="1" min="27" max="27"/>
+    <col width="7" customWidth="1" min="28" max="28"/>
+    <col width="7" customWidth="1" min="29" max="29"/>
+    <col width="7" customWidth="1" min="30" max="30"/>
     <col width="7" customWidth="1" min="31" max="31"/>
     <col width="8" customWidth="1" min="32" max="32"/>
     <col width="7" customWidth="1" min="33" max="33"/>
-    <col width="8" customWidth="1" min="34" max="34"/>
+    <col width="7" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -652,418 +652,522 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>45061.50694444445</v>
+        <v>44781.54861111111</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>24.502</v>
+        <v>6.427</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>17.071</v>
+        <v>5.211</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>4.266</v>
+        <v>0</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>51.765</v>
+        <v>14.561</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>42.826</v>
+        <v>11.533</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>19.282</v>
+        <v>4.486</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>64.646</v>
+        <v>15.002</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>29.668</v>
+        <v>8.211</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>12.708</v>
+        <v>4.17</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>19.604</v>
+        <v>5.579</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>20.148</v>
+        <v>6.239</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>21.386</v>
+        <v>6.747</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>6.157</v>
+        <v>1.607</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>19.174</v>
+        <v>5.615</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>27.062</v>
+        <v>7.139</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>15.864</v>
+        <v>4.876</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>3.991</v>
+        <v>0.271</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>2.607</v>
+        <v>0.709</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>284.514</v>
+        <v>78.413</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>53.424</v>
+        <v>15.366</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>17.698</v>
+        <v>5.184</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>35.645</v>
+        <v>9.362</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>18.491</v>
+        <v>6.286</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>2.496</v>
+        <v>0.958</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>31.956</v>
+        <v>8.106999999999999</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>15.633</v>
+        <v>4.01</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>13.958</v>
+        <v>5.031</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>16.32</v>
+        <v>6.902</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>21.117</v>
+        <v>7.612</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>3.641</v>
+        <v>1.257</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>57.291</v>
+        <v>12.304</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>9.936999999999999</v>
+        <v>3.802</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>22.127</v>
+        <v>5.737</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>45061.51388888889</v>
+        <v>44781.55555555555</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>24.021</v>
+        <v>5.314</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>17.38</v>
+        <v>4.16</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>2.069</v>
+        <v>0.012</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>51.658</v>
+        <v>12.079</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>42.771</v>
+        <v>9.554</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>18.904</v>
+        <v>3.805</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>73.45699999999999</v>
+        <v>17.002</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>29.086</v>
+        <v>6.69</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>12.763</v>
+        <v>3.503</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>19.309</v>
+        <v>4.489</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>20.534</v>
+        <v>5.008</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>21.75</v>
+        <v>5.355</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>6.039</v>
+        <v>1.373</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>18.798</v>
+        <v>4.488</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>26.681</v>
+        <v>5.988</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>15.816</v>
+        <v>3.934</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>1.725</v>
+        <v>0.103</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>1.286</v>
+        <v>0.457</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>278.824</v>
+        <v>61.339</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>52.594</v>
+        <v>12.648</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>17.351</v>
+        <v>4.144</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>35.238</v>
+        <v>8.015000000000001</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>18.664</v>
+        <v>4.875</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>2.447</v>
+        <v>0.779</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>35.351</v>
+        <v>8.813000000000001</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>15.326</v>
+        <v>3.456</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>13.69</v>
+        <v>3.879</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>16.055</v>
+        <v>4.82</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>21.593</v>
+        <v>5.725</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.294</v>
+        <v>0.647</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>66.44499999999999</v>
+        <v>15.352</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>9.769</v>
+        <v>2.747</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>21.694</v>
+        <v>4.85</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>45061.52083333334</v>
+        <v>44781.5625</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>15.854</v>
+        <v>1.116</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>11.467</v>
+        <v>0.944</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>1.304</v>
+        <v>0</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>34.099</v>
+        <v>2.821</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>28.253</v>
+        <v>2.018</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>12.477</v>
+        <v>0.605</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>50.979</v>
+        <v>7.577</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>19.197</v>
+        <v>1.543</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>8.426</v>
+        <v>1.163</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>12.723</v>
+        <v>1.021</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>13.577</v>
+        <v>1.244</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>14.379</v>
+        <v>1.346</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>3.986</v>
+        <v>0.339</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>12.407</v>
+        <v>1.105</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>17.601</v>
+        <v>1.395</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>10.513</v>
+        <v>1.092</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>1.095</v>
+        <v>0.036</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.792</v>
+        <v>0.244</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>181.534</v>
+        <v>9.907999999999999</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>34.765</v>
+        <v>3.429</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>11.452</v>
+        <v>1.021</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>23.249</v>
+        <v>2.04</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>12.385</v>
+        <v>1.457</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>1.61</v>
+        <v>0.312</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>24.063</v>
+        <v>3.775</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>10.115</v>
+        <v>0.799</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>9.058</v>
+        <v>1.267</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>10.622</v>
+        <v>1.594</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>14.311</v>
+        <v>1.593</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.784</v>
+        <v>0.435</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>46.099</v>
+        <v>7.105</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>6.425</v>
+        <v>0.832</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>14.318</v>
+        <v>1.076</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>45061.52777777778</v>
+        <v>44781.56944444445</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>15.37</v>
+        <v>0.224</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>11.22</v>
+        <v>0.245</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>1.07</v>
+        <v>0</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>33.15</v>
+        <v>0.796</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>27.46</v>
+        <v>0</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>12.1</v>
+        <v>0</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>47.89</v>
+        <v>3.383</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>18.62</v>
+        <v>0.427</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>8.210000000000001</v>
+        <v>0.5659999999999999</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>12.36</v>
+        <v>0.268</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>13.23</v>
+        <v>0.334</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>14.01</v>
+        <v>0</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>3.86</v>
+        <v>0</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>12.03</v>
+        <v>0.354</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>17.09</v>
+        <v>0.365</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>10.17</v>
+        <v>0.44</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.83</v>
+        <v>0.017</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.68</v>
+        <v>0.124</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>175.8</v>
+        <v>0</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>33.66</v>
+        <v>1.224</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>11.1</v>
+        <v>0.328</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>22.56</v>
+        <v>0.606</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>12.02</v>
+        <v>0.626</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>1.56</v>
+        <v>0.195</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>22.86</v>
+        <v>1.797</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>9.81</v>
+        <v>0.23</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>8.75</v>
+        <v>0.627</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>10.27</v>
+        <v>0.787</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>13.96</v>
+        <v>0.635</v>
       </c>
       <c r="AE5" s="4" t="n">
+        <v>0.313</v>
+      </c>
+      <c r="AF5" s="4" t="n">
+        <v>3.429</v>
+      </c>
+      <c r="AG5" s="4" t="n">
+        <v>0.373</v>
+      </c>
+      <c r="AH5" s="4" t="n">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>44781.57637731481</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AB6" s="4" t="n">
         <v>0.5600000000000001</v>
       </c>
-      <c r="AF5" s="4" t="n">
-        <v>43.26</v>
-      </c>
-      <c r="AG5" s="4" t="n">
-        <v>6.24</v>
-      </c>
-      <c r="AH5" s="4" t="n">
-        <v>13.88</v>
+      <c r="AC6" s="4" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="AG6" s="4" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="AH6" s="4" t="n">
+        <v>0.3</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_380.xlsx
+++ b/DATA_goal/Junction_Flooding_380.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
     <col width="7" customWidth="1" min="4" max="4"/>
     <col width="8" customWidth="1" min="5" max="5"/>
     <col width="8" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
     <col width="8" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
+    <col width="8" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
     <col width="7" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="8" customWidth="1" min="17" max="17"/>
     <col width="7" customWidth="1" min="18" max="18"/>
     <col width="7" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
     <col width="8" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
     <col width="7" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
+    <col width="8" customWidth="1" min="27" max="27"/>
+    <col width="8" customWidth="1" min="28" max="28"/>
+    <col width="8" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
     <col width="7" customWidth="1" min="31" max="31"/>
     <col width="8" customWidth="1" min="32" max="32"/>
     <col width="7" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -652,522 +652,418 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>44781.54861111111</v>
+        <v>45061.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>6.427</v>
+        <v>24.502</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>5.211</v>
+        <v>17.071</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0</v>
+        <v>4.266</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>14.561</v>
+        <v>51.765</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>11.533</v>
+        <v>42.826</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>4.486</v>
+        <v>19.282</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>15.002</v>
+        <v>64.646</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>8.211</v>
+        <v>29.668</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>4.17</v>
+        <v>12.708</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>5.579</v>
+        <v>19.604</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>6.239</v>
+        <v>20.148</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>6.747</v>
+        <v>21.386</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>1.607</v>
+        <v>6.157</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>5.615</v>
+        <v>19.174</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>7.139</v>
+        <v>27.062</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>4.876</v>
+        <v>15.864</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.271</v>
+        <v>3.991</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.709</v>
+        <v>2.607</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>78.413</v>
+        <v>284.514</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>15.366</v>
+        <v>53.424</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>5.184</v>
+        <v>17.698</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>9.362</v>
+        <v>35.645</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>6.286</v>
+        <v>18.491</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.958</v>
+        <v>2.496</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>8.106999999999999</v>
+        <v>31.956</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>4.01</v>
+        <v>15.633</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>5.031</v>
+        <v>13.958</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>6.902</v>
+        <v>16.32</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>7.612</v>
+        <v>21.117</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>1.257</v>
+        <v>3.641</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>12.304</v>
+        <v>57.291</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>3.802</v>
+        <v>9.936999999999999</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>5.737</v>
+        <v>22.127</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>44781.55555555555</v>
+        <v>45061.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>5.314</v>
+        <v>24.021</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>4.16</v>
+        <v>17.38</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.012</v>
+        <v>2.069</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>12.079</v>
+        <v>51.658</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>9.554</v>
+        <v>42.771</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>3.805</v>
+        <v>18.904</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>17.002</v>
+        <v>73.45699999999999</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>6.69</v>
+        <v>29.086</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>3.503</v>
+        <v>12.763</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>4.489</v>
+        <v>19.309</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>5.008</v>
+        <v>20.534</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>5.355</v>
+        <v>21.75</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>1.373</v>
+        <v>6.039</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>4.488</v>
+        <v>18.798</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>5.988</v>
+        <v>26.681</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>3.934</v>
+        <v>15.816</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.103</v>
+        <v>1.725</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.457</v>
+        <v>1.286</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>61.339</v>
+        <v>278.824</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>12.648</v>
+        <v>52.594</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>4.144</v>
+        <v>17.351</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>8.015000000000001</v>
+        <v>35.238</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>4.875</v>
+        <v>18.664</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.779</v>
+        <v>2.447</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>8.813000000000001</v>
+        <v>35.351</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>3.456</v>
+        <v>15.326</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>3.879</v>
+        <v>13.69</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>4.82</v>
+        <v>16.055</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>5.725</v>
+        <v>21.593</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.647</v>
+        <v>1.294</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>15.352</v>
+        <v>66.44499999999999</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>2.747</v>
+        <v>9.769</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>4.85</v>
+        <v>21.694</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>44781.5625</v>
+        <v>45061.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>1.116</v>
+        <v>15.854</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0.944</v>
+        <v>11.467</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0</v>
+        <v>1.304</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>2.821</v>
+        <v>34.099</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>2.018</v>
+        <v>28.253</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>0.605</v>
+        <v>12.477</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>7.577</v>
+        <v>50.979</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>1.543</v>
+        <v>19.197</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>1.163</v>
+        <v>8.426</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>1.021</v>
+        <v>12.723</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>1.244</v>
+        <v>13.577</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>1.346</v>
+        <v>14.379</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.339</v>
+        <v>3.986</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>1.105</v>
+        <v>12.407</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>1.395</v>
+        <v>17.601</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>1.092</v>
+        <v>10.513</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.036</v>
+        <v>1.095</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.244</v>
+        <v>0.792</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>9.907999999999999</v>
+        <v>181.534</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>3.429</v>
+        <v>34.765</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>1.021</v>
+        <v>11.452</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>2.04</v>
+        <v>23.249</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>1.457</v>
+        <v>12.385</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.312</v>
+        <v>1.61</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>3.775</v>
+        <v>24.063</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>0.799</v>
+        <v>10.115</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>1.267</v>
+        <v>9.058</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>1.594</v>
+        <v>10.622</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>1.593</v>
+        <v>14.311</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.435</v>
+        <v>0.784</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>7.105</v>
+        <v>46.099</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.832</v>
+        <v>6.425</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>1.076</v>
+        <v>14.318</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>44781.56944444445</v>
+        <v>45061.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>0.224</v>
+        <v>15.37</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>0.245</v>
+        <v>11.22</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>0.796</v>
+        <v>33.15</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>0</v>
+        <v>27.46</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>0</v>
+        <v>12.1</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>3.383</v>
+        <v>47.89</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>0.427</v>
+        <v>18.62</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>0.5659999999999999</v>
+        <v>8.210000000000001</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>0.268</v>
+        <v>12.36</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>0.334</v>
+        <v>13.23</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>0</v>
+        <v>14.01</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0</v>
+        <v>3.86</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>0.354</v>
+        <v>12.03</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>0.365</v>
+        <v>17.09</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>0.44</v>
+        <v>10.17</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.017</v>
+        <v>0.83</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.124</v>
+        <v>0.68</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>0</v>
+        <v>175.8</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>1.224</v>
+        <v>33.66</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>0.328</v>
+        <v>11.1</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>0.606</v>
+        <v>22.56</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>0.626</v>
+        <v>12.02</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.195</v>
+        <v>1.56</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>1.797</v>
+        <v>22.86</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>0.23</v>
+        <v>9.81</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0.627</v>
+        <v>8.75</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>0.787</v>
+        <v>10.27</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>0.635</v>
+        <v>13.96</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.313</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>3.429</v>
+        <v>43.26</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.373</v>
+        <v>6.24</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>0.27</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44781.57637731481</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>0.27</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>0.26</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>0.46</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>0.48</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>0.51</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>0.53</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>0.6899999999999999</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>0.59</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>2.29</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>0.3</v>
+        <v>13.88</v>
       </c>
     </row>
   </sheetData>
